--- a/Res_Trans_Flota_Esc_10.xlsx
+++ b/Res_Trans_Flota_Esc_10.xlsx
@@ -527,7 +527,7 @@
         <v>2025</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -543,7 +543,7 @@
         <v>2026</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>2027</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="4">
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.53</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="6">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="7">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.21</v>
+        <v>18.07</v>
       </c>
     </row>
     <row r="9">
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.22</v>
+        <v>9.24</v>
       </c>
     </row>
     <row r="10">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.21</v>
+        <v>18.07</v>
       </c>
     </row>
     <row r="11">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -858,13 +858,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -909,10 +909,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
         <v>55</v>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C8" t="n">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D8" t="n">
         <v>65</v>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1136,13 +1136,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1203,13 +1203,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1235,13 +1235,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
         <v>23</v>
@@ -1334,10 +1334,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
         <v>33</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
         <v>12</v>
@@ -1433,7 +1433,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>10</v>
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
         <v>10</v>
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C10" t="n">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D10" t="n">
         <v>65</v>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>440009.3959621213</v>
+        <v>80565.33131818178</v>
       </c>
       <c r="E2" t="n">
         <v>563211.9009880809</v>
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>268969.7932654545</v>
+        <v>11509.33304545454</v>
       </c>
       <c r="E3" t="n">
         <v>281605.9504940404</v>
@@ -1663,7 +1663,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>649537.6797536075</v>
+        <v>118929.7748030303</v>
       </c>
       <c r="E5" t="n">
         <v>831408.0443157384</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>397050.6472013852</v>
+        <v>16989.96782900432</v>
       </c>
       <c r="E6" t="n">
         <v>415704.0221578692</v>
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>37505562.79867604</v>
+        <v>6867235.383787877</v>
       </c>
       <c r="E8" t="n">
         <v>48007109.6556507</v>
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>22926472.8545316</v>
+        <v>981033.626255411</v>
       </c>
       <c r="E9" t="n">
         <v>24003554.82782535</v>
@@ -1879,7 +1879,7 @@
         <v>2025</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -1895,7 +1895,7 @@
         <v>2026</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -2155,7 +2155,7 @@
         <v>2025</v>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -2171,7 +2171,7 @@
         <v>2026</v>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -2187,7 +2187,7 @@
         <v>2027</v>
       </c>
       <c r="D13" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2352,7 +2352,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2371,7 +2371,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2428,7 +2428,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -2447,7 +2447,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2504,7 +2504,7 @@
         <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2523,7 +2523,7 @@
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -2580,7 +2580,7 @@
         <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2637,7 +2637,7 @@
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -2656,7 +2656,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2675,7 +2675,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2694,7 +2694,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2713,7 +2713,7 @@
         <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2732,7 +2732,7 @@
         <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2770,7 +2770,7 @@
         <v>9</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -7238,7 +7238,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -7257,7 +7257,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -7314,7 +7314,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -7409,7 +7409,7 @@
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -7466,7 +7466,7 @@
         <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -7485,7 +7485,7 @@
         <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -7523,7 +7523,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -7542,7 +7542,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -7580,7 +7580,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -10088,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="159">
@@ -10107,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160">
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -10164,7 +10164,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="163">
@@ -10183,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164">
@@ -10240,7 +10240,7 @@
         <v>2</v>
       </c>
       <c r="E166" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="167">
@@ -12683,7 +12683,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -13259,7 +13259,7 @@
         <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -13283,7 +13283,7 @@
         <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -13403,7 +13403,7 @@
         <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -13427,7 +13427,7 @@
         <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -13643,7 +13643,7 @@
         <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -14003,7 +14003,7 @@
         <v>3</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -14987,7 +14987,7 @@
         <v>5</v>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -15059,7 +15059,7 @@
         <v>5</v>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -15563,7 +15563,7 @@
         <v>6</v>
       </c>
       <c r="F152" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -15587,7 +15587,7 @@
         <v>6</v>
       </c>
       <c r="F153" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -15923,7 +15923,7 @@
         <v>6</v>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -16499,7 +16499,7 @@
         <v>7</v>
       </c>
       <c r="F191" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -16523,7 +16523,7 @@
         <v>7</v>
       </c>
       <c r="F192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -16931,7 +16931,7 @@
         <v>8</v>
       </c>
       <c r="F209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -17075,7 +17075,7 @@
         <v>8</v>
       </c>
       <c r="F215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -42011,7 +42011,7 @@
         <v>0</v>
       </c>
       <c r="F1254" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1255">
@@ -42035,7 +42035,7 @@
         <v>0</v>
       </c>
       <c r="F1255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256">
@@ -42059,7 +42059,7 @@
         <v>0</v>
       </c>
       <c r="F1256" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1257">
@@ -42107,7 +42107,7 @@
         <v>0</v>
       </c>
       <c r="F1258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259">
@@ -42131,7 +42131,7 @@
         <v>0</v>
       </c>
       <c r="F1259" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1260">
@@ -42203,7 +42203,7 @@
         <v>0</v>
       </c>
       <c r="F1262" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1263">
@@ -42251,7 +42251,7 @@
         <v>0</v>
       </c>
       <c r="F1264" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265">
@@ -42275,7 +42275,7 @@
         <v>0</v>
       </c>
       <c r="F1265" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1266">
@@ -42299,7 +42299,7 @@
         <v>0</v>
       </c>
       <c r="F1266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267">
@@ -42395,7 +42395,7 @@
         <v>0</v>
       </c>
       <c r="F1270" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1271">
@@ -42419,7 +42419,7 @@
         <v>0</v>
       </c>
       <c r="F1271" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1272">
@@ -42443,7 +42443,7 @@
         <v>0</v>
       </c>
       <c r="F1272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1273">
@@ -42467,7 +42467,7 @@
         <v>0</v>
       </c>
       <c r="F1273" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1274">
@@ -42587,7 +42587,7 @@
         <v>1</v>
       </c>
       <c r="F1278" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1279">
@@ -42611,7 +42611,7 @@
         <v>1</v>
       </c>
       <c r="F1279" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1280">
@@ -42659,7 +42659,7 @@
         <v>1</v>
       </c>
       <c r="F1281" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1282">
@@ -42683,7 +42683,7 @@
         <v>1</v>
       </c>
       <c r="F1282" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1283">
@@ -42755,7 +42755,7 @@
         <v>1</v>
       </c>
       <c r="F1285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286">
@@ -42803,7 +42803,7 @@
         <v>1</v>
       </c>
       <c r="F1287" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1288">
@@ -42875,7 +42875,7 @@
         <v>1</v>
       </c>
       <c r="F1290" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1291">
@@ -42899,7 +42899,7 @@
         <v>1</v>
       </c>
       <c r="F1291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292">
@@ -43019,7 +43019,7 @@
         <v>1</v>
       </c>
       <c r="F1296" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1297">
@@ -43187,7 +43187,7 @@
         <v>2</v>
       </c>
       <c r="F1303" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1304">
@@ -43259,7 +43259,7 @@
         <v>2</v>
       </c>
       <c r="F1306" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1307">
@@ -43331,7 +43331,7 @@
         <v>2</v>
       </c>
       <c r="F1309" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1310">
@@ -43403,7 +43403,7 @@
         <v>2</v>
       </c>
       <c r="F1312" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1313">
@@ -43475,7 +43475,7 @@
         <v>2</v>
       </c>
       <c r="F1315" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -43547,7 +43547,7 @@
         <v>2</v>
       </c>
       <c r="F1318" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1319">
@@ -43619,7 +43619,7 @@
         <v>2</v>
       </c>
       <c r="F1321" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1322">
@@ -60493,7 +60493,7 @@
         <v>2025</v>
       </c>
       <c r="C2" t="n">
-        <v>7220000</v>
+        <v>14420000</v>
       </c>
     </row>
     <row r="3">
@@ -60504,7 +60504,7 @@
         <v>2026</v>
       </c>
       <c r="C3" t="n">
-        <v>3308506.872607503</v>
+        <v>1417931.517796024</v>
       </c>
     </row>
     <row r="4">
@@ -60515,7 +60515,7 @@
         <v>2027</v>
       </c>
       <c r="C4" t="n">
-        <v>5385959.793765339</v>
+        <v>258085.2089094209</v>
       </c>
     </row>
   </sheetData>

--- a/Res_Trans_Flota_Esc_10.xlsx
+++ b/Res_Trans_Flota_Esc_10.xlsx
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.07</v>
+        <v>18.05</v>
       </c>
     </row>
     <row r="9">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.07</v>
+        <v>18.05</v>
       </c>
     </row>
     <row r="11">
